--- a/DB명세서.xlsx
+++ b/DB명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\p2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC2B5FE-6E99-4C7A-98E5-370B24695AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C763AA-C1F6-4A3A-9F78-DB8E3AA27FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{91E46220-BDEF-47FF-BCC2-0068E3EC2F15}"/>
+    <workbookView xWindow="11175" yWindow="240" windowWidth="14085" windowHeight="14970" xr2:uid="{91E46220-BDEF-47FF-BCC2-0068E3EC2F15}"/>
   </bookViews>
   <sheets>
     <sheet name="TB LIST" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="149">
   <si>
     <t>Table_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,10 +95,6 @@
     <t>차량번호</t>
   </si>
   <si>
-    <t>Log Data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -107,26 +103,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Driving Unit Data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>car_num</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>information_in_seconds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -142,9 +127,6 @@
     <t>운전자번호</t>
   </si>
   <si>
-    <t>일일주행거리</t>
-  </si>
-  <si>
     <t>누적주행거리</t>
   </si>
   <si>
@@ -160,9 +142,6 @@
     <t>GPS X 좌표</t>
   </si>
   <si>
-    <t>GPS Y 좌표</t>
-  </si>
-  <si>
     <t>GPS 방위각</t>
   </si>
   <si>
@@ -175,14 +154,6 @@
     <t>통신상태코드</t>
   </si>
   <si>
-    <t>Vehicle Information Data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그데이터 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PRP</t>
   </si>
   <si>
@@ -198,9 +169,6 @@
     <t>DSR</t>
   </si>
   <si>
-    <t>초당 과속 횟수</t>
-  </si>
-  <si>
     <t>양의 RPM 변화 횟수</t>
   </si>
   <si>
@@ -228,14 +196,6 @@
     <t>판정</t>
   </si>
   <si>
-    <t>속도와 RPM 분석을 통해 도출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>초당 과속 횟수 기록</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>급격한 양(+)의 RPM 변화량의 기록</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -306,9 +266,6 @@
   <si>
     <t>status_code</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Driving Unit Data</t>
   </si>
   <si>
     <t>FSS</t>
@@ -395,21 +352,12 @@
     <t>운행당 차량점수</t>
   </si>
   <si>
-    <t>운행점수 1 - 안전, 2 - 주의, 3 - 위험</t>
-  </si>
-  <si>
-    <t>차량점수 0 - 안전, 1 - 주의, 2 - 위험</t>
-  </si>
-  <si>
     <t>ACC</t>
   </si>
   <si>
     <t>초당 가속도</t>
   </si>
   <si>
-    <t>초당 속도를 계산하여 가속도 산출</t>
-  </si>
-  <si>
     <t>FS</t>
   </si>
   <si>
@@ -422,27 +370,12 @@
     <t>RPMSR</t>
   </si>
   <si>
-    <t>급격한 RPM 변화</t>
-  </si>
-  <si>
-    <t>급격한 RPM 변화 - 변화없음 : 0, 양의 변화량 : 1, 음의 변화량 : 2</t>
-  </si>
-  <si>
     <t>ACCR</t>
   </si>
   <si>
-    <t>급격한 속도 변화</t>
-  </si>
-  <si>
-    <t>급격한 가속도 변화량 - 변화없음 : 0, 양의 변화량 : 4, 음의 변화량 : 7</t>
-  </si>
-  <si>
     <t>SRA</t>
   </si>
   <si>
-    <t>RPMSR + ACCR</t>
-  </si>
-  <si>
     <t>00시부터 24시까지 주행한 거리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -467,17 +400,6 @@
   </si>
   <si>
     <t>10진수로 표기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 : 이상없음
-1 : 주의
-2 : 위험
-3 : 즉시점검</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raw Data</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -525,10 +447,297 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">asw
-id : admin
-pass : tigertiger
+    <t>Simul</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS Y 좌표</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">GPS Y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좌표</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">GPS X </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좌표</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유류비 분석 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>일일주행거리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>운행일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00시부터 24시까지 주행한 거리</t>
+  </si>
+  <si>
+    <t>Oil_Money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유류비 계산값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기름값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 모의주행 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raw_Data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Driving_Unit_Data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vehicle_Information_Data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량 판정 정보 데이터 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정의된 기준 (-5 이하 ~ +3 이상) 범위를 벗어나는 레이블 체크
+기준 내 변화량 : 0 / 양의 변화량 : 4 / 음의 변화량 : 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 RPM 변화량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1초 전 RPM – 1초 RPM)/ 2(초) 로 계산
+초당 기록된 RPM 데이터를 가공하여 산출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정의된 기준 (-350 이하 ~ +350 이상) 범위를 벗어나는 레이블 체크
+기준 내 변화량 : 0 / 양의 변화량 : 1 / 음의 변화량 : 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1초 전 속도 – 1초 속도)/ 2(초) 로 계산
+초당 기록된 속도 데이터를 가공하여 산출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과속 횟수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>·1분(60초) 이상 과속하였을 때 1회 과속한 것으로 정의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 운행시간에서 문제운행(과속, +/-RPMS, +/-ACC) 회수의 비율을 계산
+(전체운행 – 문제운행) / 전체운행 * 100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과속 요소 1점 / 급가속 요소 1점 / 급감속 요소 1점
+총 3점 구성, 1점 안전 / 2점 주의 / 3점 위험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ RPMSR 요소 1점 / - RPMSR 요소 1점 총 2점 구성'
+ 0점 안전 / 1점 주의 / 2점 위험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>운행점수 + 차량점수 = 종합점수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>급격한 속도 변화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>급격한 RPM 변화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>급격한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> RPM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + 
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>급격한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>속도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변화</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>급격한 RPM 변화 + 
+급격한 속도 변화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 : 안전
+1 : 이상없음
+2 : 주의
+3 : 위험
+4 : 즉시점검</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균 이상 요소 – 1점 부여
+전체 차량보다 높은 평균 운행위험 횟수
+추세적 상승 요소 – 1점 부여
+개별 해당 차량의 운행 위험도 상승</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +745,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,6 +826,33 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -631,7 +867,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -789,6 +1025,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -798,7 +1099,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,9 +1139,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,9 +1160,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -892,18 +1187,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -924,6 +1213,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1276,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F84C6B-F020-44BC-8F85-12F1635105DC}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1290,72 +1639,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickTop="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>84</v>
+      <c r="E1" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A4" s="21">
+    <row r="4" spans="1:5">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="13"/>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" thickTop="1"/>
-    <row r="7" spans="1:5" ht="66">
-      <c r="B7" s="41" t="s">
-        <v>131</v>
-      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A6" s="41">
+        <v>5</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" thickTop="1"/>
+    <row r="9" spans="1:5">
+      <c r="B9" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1365,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8AC1B0-779A-4ED6-BC60-CB47EFA52B10}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1385,226 +1762,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" thickTop="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1" s="49"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
+      <c r="A4" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="24">
+        <v>74</v>
+      </c>
+      <c r="B6" s="22">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="40"/>
+        <v>100</v>
+      </c>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
-      <c r="B7" s="24">
+      <c r="B7" s="22">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>126</v>
+        <v>103</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1"/>
-      <c r="B8" s="24">
+      <c r="B8" s="22">
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="22">
         <v>45</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1"/>
-      <c r="B10" s="24">
+      <c r="B10" s="22">
         <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="22">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="24">
-        <v>5</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="22">
         <v>45</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="3"/>
@@ -1615,391 +1992,391 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
-      <c r="B12" s="24">
+      <c r="B12" s="22">
         <v>7</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
-      <c r="B13" s="24">
+      <c r="B13" s="22">
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="6" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1"/>
-      <c r="B14" s="24">
+      <c r="B14" s="22">
         <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>113</v>
+        <v>24</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1"/>
-      <c r="B15" s="24">
+      <c r="B15" s="22">
         <v>10</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
-      <c r="B16" s="24">
+      <c r="B16" s="22">
         <v>11</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1"/>
-      <c r="B17" s="24">
+      <c r="B17" s="22">
         <v>12</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1"/>
-      <c r="B18" s="24">
+      <c r="B18" s="22">
         <v>13</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24" t="s">
+      <c r="E18" s="22"/>
+      <c r="F18" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1"/>
-      <c r="B19" s="24">
+      <c r="B19" s="22">
         <v>14</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="6" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1"/>
-      <c r="B20" s="24">
+      <c r="B20" s="22">
         <v>15</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1"/>
-      <c r="B21" s="24">
+      <c r="B21" s="22">
         <v>16</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1"/>
-      <c r="B22" s="24">
+      <c r="B22" s="22">
         <v>17</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="181.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="24">
+      <c r="B23" s="22">
         <v>18</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="33">
       <c r="A24" s="1"/>
-      <c r="B24" s="24">
+      <c r="B24" s="22">
         <v>19</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="33">
       <c r="A25" s="1"/>
-      <c r="B25" s="24">
+      <c r="B25" s="22">
         <v>20</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>100</v>
+        <v>85</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1"/>
-      <c r="B26" s="24">
+      <c r="B26" s="22">
         <v>21</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="33">
       <c r="A27" s="1"/>
-      <c r="B27" s="24">
+      <c r="B27" s="22">
         <v>22</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="33">
       <c r="A28" s="1"/>
-      <c r="B28" s="24">
+      <c r="B28" s="22">
         <v>23</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>109</v>
+        <v>143</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="83.25" thickBot="1">
@@ -2008,10 +2385,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
@@ -2019,587 +2396,973 @@
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I29" s="35" t="s">
-        <v>130</v>
+        <v>146</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17.25" thickTop="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="37"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="33"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="37"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="37"/>
-    </row>
-    <row r="35" spans="1:9" ht="17.25" thickBot="1"/>
-    <row r="36" spans="1:9" ht="17.25" thickTop="1">
-      <c r="A36" s="52" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="33"/>
+    </row>
+    <row r="32" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="33"/>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" thickTop="1">
+      <c r="A33" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="48" t="s">
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="I33" s="65"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="61"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="61"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="22">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="I36" s="49"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="50" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1"/>
+      <c r="B39" s="22">
+        <v>2</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="22">
+        <v>3</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="22">
+        <v>45</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="4"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1"/>
+      <c r="B41" s="22">
         <v>4</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="45"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="45"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="45"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="24">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24" t="s">
+      <c r="C41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="3"/>
-      <c r="H41" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I41" s="4"/>
+      <c r="H41" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1"/>
-      <c r="B42" s="24">
-        <v>2</v>
+      <c r="B42" s="22">
+        <v>5</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1"/>
-      <c r="B43" s="24">
-        <v>3</v>
+      <c r="B43" s="22">
+        <v>6</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="24">
-        <v>45</v>
-      </c>
-      <c r="F43" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1"/>
-      <c r="B44" s="24">
-        <v>4</v>
+      <c r="B44" s="22">
+        <v>7</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1"/>
-      <c r="B45" s="24">
-        <v>5</v>
+      <c r="B45" s="22">
+        <v>8</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="33">
       <c r="A46" s="1"/>
-      <c r="B46" s="24">
-        <v>6</v>
+      <c r="B46" s="22">
+        <v>9</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="33">
+      <c r="A47" s="1"/>
+      <c r="B47" s="22">
+        <v>10</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I47" s="53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="33.75" thickBot="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9">
+        <v>11</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" s="54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="17.25" thickTop="1"/>
+    <row r="51" spans="1:9" ht="17.25" thickBot="1"/>
+    <row r="52" spans="1:9" ht="17.25" thickTop="1">
+      <c r="A52" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="I52" s="65"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="61"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="61"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="61"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="22">
+        <v>1</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="22">
+        <v>45</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" ht="38.1" customHeight="1">
+      <c r="A58" s="1"/>
+      <c r="B58" s="22">
+        <v>2</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I58" s="56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="38.1" customHeight="1">
+      <c r="A59" s="1"/>
+      <c r="B59" s="22">
+        <v>3</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I59" s="57"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="1"/>
+      <c r="B60" s="22">
+        <v>4</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="83.25" thickBot="1">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9">
+        <v>5</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="10"/>
+      <c r="H61" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="17.25" thickTop="1"/>
+    <row r="64" spans="1:9" ht="17.25" thickBot="1"/>
+    <row r="65" spans="1:9" ht="17.25" thickTop="1">
+      <c r="A65" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="I65" s="65"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="60"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="60"/>
+      <c r="I66" s="61"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+      <c r="H67" s="60"/>
+      <c r="I67" s="61"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="61"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="40">
+        <v>1</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1"/>
+      <c r="B71" s="40">
+        <v>2</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="1"/>
-      <c r="B47" s="24">
+      <c r="D71" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1"/>
+      <c r="B72" s="40">
+        <v>3</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" ht="83.25" thickBot="1">
+      <c r="A73" s="8"/>
+      <c r="B73" s="9">
+        <v>4</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="10"/>
+      <c r="H73" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="17.25" thickTop="1"/>
+    <row r="76" spans="1:9" ht="17.25" thickBot="1"/>
+    <row r="77" spans="1:9" ht="17.25" thickTop="1">
+      <c r="A77" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="I77" s="65"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="59"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="61"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="59"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="61"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="59"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="61"/>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="1"/>
-      <c r="B48" s="24">
+      <c r="G81" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1"/>
-      <c r="B49" s="24">
+      <c r="H81" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="I81" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="47">
+        <v>1</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D82" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="1"/>
+      <c r="B83" s="47">
+        <v>2</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="1"/>
+      <c r="B84" s="47">
+        <v>3</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="E84" s="47">
         <v>45</v>
       </c>
-      <c r="D49" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="1"/>
-      <c r="B50" s="24">
-        <v>10</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="I50" s="31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9">
-        <v>11</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="I51" s="34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="17.25" thickTop="1"/>
-    <row r="54" spans="1:9" ht="17.25" thickBot="1"/>
-    <row r="55" spans="1:9" ht="17.25" thickTop="1">
-      <c r="A55" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="I55" s="49"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="42" t="s">
+      <c r="F84" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="1"/>
+      <c r="B85" s="47">
         <v>4</v>
       </c>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="45"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="45"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
-      <c r="I58" s="45"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="26" t="s">
+      <c r="C85" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I85" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A86" s="49"/>
+      <c r="B86" s="50">
         <v>5</v>
       </c>
-      <c r="E59" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="24">
-        <v>1</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="24">
-        <v>45</v>
-      </c>
-      <c r="F60" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="1"/>
-      <c r="B61" s="24">
-        <v>2</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="1"/>
-      <c r="B62" s="24">
-        <v>3</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="1"/>
-      <c r="B63" s="24">
-        <v>4</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="1:9" ht="66.75" thickBot="1">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9">
-        <v>5</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="10"/>
-      <c r="H64" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" ht="17.25" thickTop="1"/>
+      <c r="C86" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="42"/>
+      <c r="H86" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="I86" s="52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="17.25" thickTop="1"/>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="61">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -2612,32 +3375,58 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:I54"/>
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H68:I68"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DB명세서.xlsx
+++ b/DB명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\p2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git java\project1\BackEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C763AA-C1F6-4A3A-9F78-DB8E3AA27FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B42D06-DB04-4E3A-A43C-A65A222CAF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11175" yWindow="240" windowWidth="14085" windowHeight="14970" xr2:uid="{91E46220-BDEF-47FF-BCC2-0068E3EC2F15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{91E46220-BDEF-47FF-BCC2-0068E3EC2F15}"/>
   </bookViews>
   <sheets>
     <sheet name="TB LIST" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="156">
   <si>
     <t>Table_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -297,10 +297,6 @@
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>차량 판정 정보데이터 테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -520,9 +516,6 @@
   </si>
   <si>
     <t>INT</t>
-  </si>
-  <si>
-    <t>CHAR</t>
   </si>
   <si>
     <t>일일주행거리</t>
@@ -738,6 +731,42 @@
 전체 차량보다 높은 평균 운행위험 횟수
 추세적 상승 요소 – 1점 부여
 개별 해당 차량의 운행 위험도 상승</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 테이블(미구현)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK,Index</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1099,7 +1128,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,9 +1258,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1268,46 +1294,58 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1625,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F84C6B-F020-44BC-8F85-12F1635105DC}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1643,7 +1681,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>71</v>
@@ -1660,13 +1698,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="4"/>
     </row>
@@ -1675,13 +1713,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="4"/>
     </row>
@@ -1690,10 +1728,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -1705,34 +1743,51 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A6" s="41">
+    <row r="6" spans="1:5">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="D6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="43"/>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" thickTop="1"/>
-    <row r="9" spans="1:5">
-      <c r="B9" s="37"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A7" s="41">
+        <v>6</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" thickTop="1"/>
+    <row r="10" spans="1:5">
+      <c r="B10" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1742,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8AC1B0-779A-4ED6-BC60-CB47EFA52B10}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1762,66 +1817,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" thickTop="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="65"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="61"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="61"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="20" t="s">
@@ -1854,13 +1907,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="22">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>18</v>
@@ -1871,7 +1924,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I6" s="36"/>
     </row>
@@ -1881,10 +1934,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22" t="s">
@@ -1892,10 +1945,10 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="36" t="s">
         <v>103</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1962,13 +2015,11 @@
         <v>22</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="22">
         <v>5</v>
       </c>
@@ -2028,10 +2079,10 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2054,7 +2105,7 @@
         <v>24</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2077,7 +2128,7 @@
         <v>25</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2100,7 +2151,7 @@
         <v>26</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2123,7 +2174,7 @@
         <v>27</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2146,7 +2197,7 @@
         <v>28</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2166,10 +2217,10 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2192,7 +2243,7 @@
         <v>29</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2215,7 +2266,7 @@
         <v>30</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2238,7 +2289,7 @@
         <v>31</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="181.5">
@@ -2261,7 +2312,7 @@
         <v>32</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="33">
@@ -2270,7 +2321,7 @@
         <v>19</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>70</v>
@@ -2281,10 +2332,10 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="33">
@@ -2293,7 +2344,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>70</v>
@@ -2304,10 +2355,10 @@
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2316,7 +2367,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>18</v>
@@ -2327,10 +2378,10 @@
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="29" t="s">
         <v>87</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="33">
@@ -2339,7 +2390,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>18</v>
@@ -2350,10 +2401,10 @@
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I27" s="29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="33">
@@ -2362,7 +2413,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>18</v>
@@ -2373,10 +2424,10 @@
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I28" s="29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="83.25" thickBot="1">
@@ -2385,7 +2436,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>18</v>
@@ -2396,10 +2447,10 @@
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="17.25" thickTop="1">
@@ -2436,64 +2487,66 @@
       <c r="I32" s="33"/>
     </row>
     <row r="33" spans="1:9" ht="17.25" thickTop="1">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="I33" s="65"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="61"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="61"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="65"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="61"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="65"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="60" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="61"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="65"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="20" t="s">
@@ -2532,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D38" s="22" t="s">
         <v>18</v>
@@ -2543,7 +2596,7 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I38" s="4"/>
     </row>
@@ -2564,13 +2617,13 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I39" s="4"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="B40" s="22">
         <v>3</v>
@@ -2610,10 +2663,10 @@
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2728,7 +2781,7 @@
         <v>42</v>
       </c>
       <c r="I46" s="35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="33">
@@ -2737,7 +2790,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>18</v>
@@ -2748,10 +2801,10 @@
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="I47" s="53" t="s">
-        <v>140</v>
+        <v>81</v>
+      </c>
+      <c r="I47" s="52" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="33.75" thickBot="1">
@@ -2760,7 +2813,7 @@
         <v>11</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>18</v>
@@ -2771,71 +2824,71 @@
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="I48" s="54" t="s">
-        <v>141</v>
+        <v>82</v>
+      </c>
+      <c r="I48" s="53" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="17.25" thickTop="1"/>
     <row r="51" spans="1:9" ht="17.25" thickBot="1"/>
     <row r="52" spans="1:9" ht="17.25" thickTop="1">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="I52" s="65"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="I52" s="61"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="60" t="s">
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="61"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="65"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="58" t="s">
+      <c r="A54" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="61"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="65"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="58" t="s">
+      <c r="A55" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="61"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="65"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="23" t="s">
@@ -2868,7 +2921,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B57" s="22">
         <v>1</v>
@@ -2887,7 +2940,7 @@
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I57" s="4"/>
     </row>
@@ -2910,8 +2963,8 @@
       <c r="H58" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I58" s="56" t="s">
-        <v>148</v>
+      <c r="I58" s="70" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="38.1" customHeight="1">
@@ -2933,7 +2986,7 @@
       <c r="H59" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I59" s="57"/>
+      <c r="I59" s="71"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1"/>
@@ -2955,7 +3008,7 @@
         <v>45</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="83.25" thickBot="1">
@@ -2978,68 +3031,68 @@
         <v>46</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="17.25" thickTop="1"/>
     <row r="64" spans="1:9" ht="17.25" thickBot="1"/>
     <row r="65" spans="1:9" ht="17.25" thickTop="1">
-      <c r="A65" s="62" t="s">
+      <c r="A65" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="63"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="I65" s="65"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="I65" s="61"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="58" t="s">
+      <c r="A66" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="61"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="65"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="58" t="s">
+      <c r="A67" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="61"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="65"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="58" t="s">
+      <c r="A68" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="61"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="65"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="38" t="s">
@@ -3072,13 +3125,13 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" s="40">
         <v>1</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D70" s="40" t="s">
         <v>18</v>
@@ -3089,7 +3142,7 @@
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I70" s="4"/>
     </row>
@@ -3109,8 +3162,8 @@
         <v>13</v>
       </c>
       <c r="G71" s="3"/>
-      <c r="H71" s="44" t="s">
-        <v>114</v>
+      <c r="H71" s="43" t="s">
+        <v>113</v>
       </c>
       <c r="I71" s="4"/>
     </row>
@@ -3130,8 +3183,8 @@
         <v>13</v>
       </c>
       <c r="G72" s="3"/>
-      <c r="H72" s="44" t="s">
-        <v>113</v>
+      <c r="H72" s="43" t="s">
+        <v>112</v>
       </c>
       <c r="I72" s="4"/>
     </row>
@@ -3141,7 +3194,7 @@
         <v>4</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>18</v>
@@ -3151,96 +3204,96 @@
         <v>13</v>
       </c>
       <c r="G73" s="10"/>
-      <c r="H73" s="55" t="s">
-        <v>145</v>
+      <c r="H73" s="54" t="s">
+        <v>143</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="17.25" thickTop="1"/>
     <row r="76" spans="1:9" ht="17.25" thickBot="1"/>
     <row r="77" spans="1:9" ht="17.25" thickTop="1">
-      <c r="A77" s="62" t="s">
+      <c r="A77" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="63"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="64" t="s">
+      <c r="B77" s="67"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="E77" s="60"/>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64" t="s">
+      <c r="I77" s="61"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="69"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="I77" s="65"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="59"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="61"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="65"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="58" t="s">
+      <c r="A79" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B79" s="59"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="61"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="64"/>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="65"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="58" t="s">
+      <c r="A80" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B80" s="59"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="60"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="60"/>
-      <c r="I80" s="61"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="69"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="65"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="45" t="s">
+      <c r="A81" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B81" s="46" t="s">
+      <c r="B81" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="46" t="s">
+      <c r="C81" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D81" s="46" t="s">
+      <c r="D81" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="46" t="s">
+      <c r="E81" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F81" s="46" t="s">
+      <c r="F81" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G81" s="46" t="s">
+      <c r="G81" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H81" s="46" t="s">
+      <c r="H81" s="45" t="s">
         <v>9</v>
       </c>
       <c r="I81" s="17" t="s">
@@ -3249,165 +3302,269 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B82" s="47">
+        <v>73</v>
+      </c>
+      <c r="B82" s="46">
         <v>1</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D82" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E82" s="47"/>
-      <c r="F82" s="47" t="s">
+      <c r="E82" s="46"/>
+      <c r="F82" s="46" t="s">
         <v>13</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I82" s="4"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1"/>
-      <c r="B83" s="47">
+      <c r="B83" s="46">
         <v>2</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47" t="s">
+      <c r="D83" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46" t="s">
         <v>13</v>
       </c>
       <c r="G83" s="3"/>
-      <c r="H83" s="48" t="s">
+      <c r="H83" s="47" t="s">
         <v>20</v>
       </c>
       <c r="I83" s="4"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1"/>
-      <c r="B84" s="47">
+      <c r="B84" s="46">
         <v>3</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="E84" s="47">
+      <c r="D84" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="46">
         <v>45</v>
       </c>
-      <c r="F84" s="47" t="s">
+      <c r="F84" s="46" t="s">
         <v>13</v>
       </c>
       <c r="G84" s="3"/>
-      <c r="H84" s="48" t="s">
+      <c r="H84" s="47" t="s">
         <v>14</v>
       </c>
       <c r="I84" s="4"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1"/>
-      <c r="B85" s="47">
+      <c r="B85" s="46">
         <v>4</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D85" s="47" t="s">
+      <c r="D85" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47" t="s">
+      <c r="E85" s="46"/>
+      <c r="F85" s="46" t="s">
         <v>13</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I85" s="35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A86" s="48"/>
+      <c r="B86" s="49">
+        <v>5</v>
+      </c>
+      <c r="C86" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="42"/>
+      <c r="H86" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="I86" s="51" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="17.25" thickBot="1">
-      <c r="A86" s="49"/>
-      <c r="B86" s="50">
+    <row r="87" spans="1:9" ht="17.25" thickTop="1"/>
+    <row r="88" spans="1:9" ht="17.25" thickBot="1"/>
+    <row r="89" spans="1:9" ht="17.25" thickTop="1">
+      <c r="A89" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="67"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E89" s="60"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="I89" s="61"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="E90" s="64"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="64"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="65"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" s="69"/>
+      <c r="C91" s="69"/>
+      <c r="D91" s="64"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="64"/>
+      <c r="I91" s="65"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="69"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="65"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="D86" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G86" s="42"/>
-      <c r="H86" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="I86" s="52" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="17.25" thickTop="1"/>
+      <c r="E93" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="I93" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="57">
+        <v>1</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D94" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="57">
+        <v>45</v>
+      </c>
+      <c r="F94" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="3"/>
+      <c r="H94" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="1:9" ht="17.25" thickBot="1">
+      <c r="A95" s="48"/>
+      <c r="B95" s="49">
+        <v>5</v>
+      </c>
+      <c r="C95" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D95" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="49">
+        <v>45</v>
+      </c>
+      <c r="F95" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="42"/>
+      <c r="H95" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="I95" s="51"/>
+    </row>
+    <row r="96" spans="1:9" ht="17.25" thickTop="1"/>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="D65:G65"/>
+  <mergeCells count="73">
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="H90:I90"/>
     <mergeCell ref="I58:I59"/>
     <mergeCell ref="A79:C79"/>
     <mergeCell ref="D79:G79"/>
@@ -3424,6 +3581,51 @@
     <mergeCell ref="A68:C68"/>
     <mergeCell ref="D68:G68"/>
     <mergeCell ref="H68:I68"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
